--- a/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Septiembre.xlsx
+++ b/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Septiembre.xlsx
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="B60" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="B64" s="65">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B95" s="65">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B96" s="65">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="B98" s="65">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
